--- a/data/trans_camb/P1413-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1413-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-6.048508612296157</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8368004129596762</v>
+        <v>0.8368004129596734</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.3745343054810918</v>
@@ -655,7 +655,7 @@
         <v>-5.069649642825334</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>10.69096295737039</v>
+        <v>10.69096295737038</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-4.220079055187706</v>
@@ -664,7 +664,7 @@
         <v>-5.677557346403121</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.375513617684264</v>
+        <v>5.375513617684266</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.94967425506685</v>
+        <v>-11.27122139924589</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.61496727566516</v>
+        <v>-10.04597686342733</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.482443551568715</v>
+        <v>-3.474760675606485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.343213350360152</v>
+        <v>-5.905753323127411</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.959944443098449</v>
+        <v>-9.631288548806218</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.148407959064467</v>
+        <v>5.882512709675922</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.471365271991546</v>
+        <v>-7.508934205568482</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.026213743521177</v>
+        <v>-8.8027011325632</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.255257320907279</v>
+        <v>1.68059392155729</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.122684913482449</v>
+        <v>-2.935553919971126</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.861958547587572</v>
+        <v>-1.898744705778035</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.283916055674394</v>
+        <v>5.186394903232332</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.038333319412477</v>
+        <v>5.013402924195426</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.1088651878046224</v>
+        <v>-0.4448928440473255</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.0702697347706</v>
+        <v>15.11237817164726</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.7068652664496631</v>
+        <v>-1.036784205144552</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.598036325233863</v>
+        <v>-2.817441232967768</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.643780627871262</v>
+        <v>8.602095116162859</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.4304890757602364</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.05955739827144629</v>
+        <v>0.0595573982714461</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.02921744310184625</v>
@@ -760,7 +760,7 @@
         <v>-0.3954836654956891</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8340026463255038</v>
+        <v>0.8340026463255036</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.311068063642496</v>
@@ -769,7 +769,7 @@
         <v>-0.4185008732937804</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3962367980005854</v>
+        <v>0.3962367980005856</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6673517667461399</v>
+        <v>-0.6813291804000868</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6463267705618018</v>
+        <v>-0.6295696375107913</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.211785668387514</v>
+        <v>-0.2209480127500201</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4216345001150034</v>
+        <v>-0.3701584377354212</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.644394546636694</v>
+        <v>-0.61620284638704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2974844452076058</v>
+        <v>0.3499972184382741</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4879951582707322</v>
+        <v>-0.4938347655404061</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5697829288901323</v>
+        <v>-0.5752994161159515</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1389328310129786</v>
+        <v>0.1044258166434401</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2459591288839982</v>
+        <v>-0.2527342766934048</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.152440402811428</v>
+        <v>-0.1481867756469645</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4534381923850767</v>
+        <v>0.4559264914432803</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5024374805476307</v>
+        <v>0.4818566617741063</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.003260419264887154</v>
+        <v>-0.04713035143399519</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.475554854687224</v>
+        <v>1.485910893083337</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.05727145083114248</v>
+        <v>-0.08544660970402955</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2048400302794194</v>
+        <v>-0.2131315792657016</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7388777913000145</v>
+        <v>0.7284625687777284</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.378588960604135</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.594354920125337</v>
+        <v>6.59435492012534</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.696541057810389</v>
@@ -869,7 +869,7 @@
         <v>-5.168292133697272</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>11.11406996688189</v>
+        <v>11.1140699668819</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.527954596708268</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.824000093402377</v>
+        <v>-5.949997238442338</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.274298261256657</v>
+        <v>-8.462361334188122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.518147925044888</v>
+        <v>2.05791501544787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.457521766506984</v>
+        <v>-8.245071667039785</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.26360447636592</v>
+        <v>-10.30990384603783</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.388627773019175</v>
+        <v>5.764549353816002</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.235430868057922</v>
+        <v>-6.241643737488491</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.15174269466007</v>
+        <v>-8.449067667976735</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.786200949014983</v>
+        <v>5.052858959956136</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.805213110376941</v>
+        <v>2.58499914464873</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1866759547315993</v>
+        <v>-0.1839454683190464</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.81143978585459</v>
+        <v>11.57588187861437</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.36950158014733</v>
+        <v>2.764272529105003</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.3879881691541268</v>
+        <v>-0.09416436603404159</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>16.25487885609048</v>
+        <v>16.68866557213271</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7155946205745369</v>
+        <v>0.7222111757184247</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.722613998266717</v>
+        <v>-1.421704104375996</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.17573269585727</v>
+        <v>12.35650566229764</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.434830701111927</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.6548748921395334</v>
+        <v>0.6548748921395336</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1596330563167333</v>
@@ -974,7 +974,7 @@
         <v>-0.3059587269588087</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.65794398041616</v>
+        <v>0.6579439804161606</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1872053102930819</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4795135911834174</v>
+        <v>-0.4859487550146943</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6746137088601487</v>
+        <v>-0.6796753716404492</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1098652858510117</v>
+        <v>0.1444113353486374</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4367058885865503</v>
+        <v>-0.4270267563567064</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5251837015543623</v>
+        <v>-0.5319289868139906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2696349212714731</v>
+        <v>0.2999413462941468</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4080157296622926</v>
+        <v>-0.4062119847011292</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5348140350206373</v>
+        <v>-0.540017721445991</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.301990743521403</v>
+        <v>0.3199549558483216</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3439787343553614</v>
+        <v>0.3314621708930749</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01654965477184653</v>
+        <v>0.03506322153289005</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.330493192288876</v>
+        <v>1.432931174794116</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1670425327759717</v>
+        <v>0.1932353194204448</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.01127801938650044</v>
+        <v>0.001805992032554028</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.183583278466984</v>
+        <v>1.197795723149702</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06948446504749331</v>
+        <v>0.06477910585939289</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.138772360505076</v>
+        <v>-0.1190964935781066</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.043293704722125</v>
+        <v>1.062943275783726</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.77278431356108</v>
+        <v>-12.86451403113305</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.29446730835605</v>
+        <v>-14.73659631586832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.885656155951537</v>
+        <v>-1.524375624986848</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.91286932750718</v>
+        <v>-14.50399522777477</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.160059541552497</v>
+        <v>-9.871564220591758</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.06853452379933</v>
+        <v>6.285461352492773</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-11.30938585851921</v>
+        <v>-10.97133798636201</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-12.16726018969478</v>
+        <v>-11.91274703928068</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.551279562315196</v>
+        <v>2.730011073757628</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.59855909997879</v>
+        <v>-4.423706331423239</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.947963058910597</v>
+        <v>-6.216691281653955</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.129701222986945</v>
+        <v>8.186899249368377</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.722198907749579</v>
+        <v>1.49126816815458</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.952135525431069</v>
+        <v>8.493624757843211</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>23.67730295473199</v>
+        <v>23.85144224324749</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-3.91900981519986</v>
+        <v>-3.563393224639221</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.277988900827417</v>
+        <v>-4.335308317291597</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.13693469266166</v>
+        <v>11.25439894157248</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.606275992093447</v>
+        <v>-0.6001632502623349</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.711502333117436</v>
+        <v>-0.70634144804064</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09023930367917274</v>
+        <v>-0.0753447069950407</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5089098321539619</v>
+        <v>-0.5349017006312233</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3910706628874928</v>
+        <v>-0.3799632746395913</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2411001431504571</v>
+        <v>0.238655506467334</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5194311109295462</v>
+        <v>-0.5213227982199338</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.566699640436686</v>
+        <v>-0.562205388627545</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1163844794602697</v>
+        <v>0.1296212993689814</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.2586788905293581</v>
+        <v>-0.2573275884492447</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.4130007145021794</v>
+        <v>-0.392489055383812</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4739809325946677</v>
+        <v>0.513353515398038</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1778654009244801</v>
+        <v>0.1026206961243422</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5356274482741563</v>
+        <v>0.5008087320832449</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.522494526382073</v>
+        <v>1.488849778999797</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2250112871099424</v>
+        <v>-0.2099001163440938</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2430467744577834</v>
+        <v>-0.2484394819793401</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6384778760451421</v>
+        <v>0.6963633958267677</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-11.26357723188933</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6205468275518877</v>
+        <v>0.6205468275518905</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-2.954588575168993</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.31900973185089</v>
+        <v>-12.1037302536016</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.99173025590477</v>
+        <v>-14.16240988883308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.68986281158314</v>
+        <v>-2.869214576942767</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.726699060703921</v>
+        <v>-7.097727684530279</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.970083738850589</v>
+        <v>-10.0672736037031</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.942268724728516</v>
+        <v>4.109763751524622</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-9.109597665349106</v>
+        <v>-9.110871748778258</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-11.4289912588511</v>
+        <v>-11.4918726161536</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.235763359333534</v>
+        <v>1.245993444607189</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.223640975787204</v>
+        <v>-6.058713618727233</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.989317035500094</v>
+        <v>-8.303290725155311</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.10085754678413</v>
+        <v>3.834563936355501</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.013048253493146</v>
+        <v>0.9148480715094833</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.398702326017413</v>
+        <v>-2.547826890310124</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.11814452492064</v>
+        <v>12.10272221252892</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-4.376125179633728</v>
+        <v>-4.500694938301784</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-6.770802460778663</v>
+        <v>-7.069265107058648</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.365056946259906</v>
+        <v>6.402624185874152</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.5520742317964596</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.03041555147724357</v>
+        <v>0.03041555147724371</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1538101761224714</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.559934000476554</v>
+        <v>-0.5546819037804677</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6403941857958926</v>
+        <v>-0.6424639333556357</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1170854717981425</v>
+        <v>-0.1292331184700007</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3149504252894066</v>
+        <v>-0.3343723844369001</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4741210793857501</v>
+        <v>-0.4748546606576648</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1885071309802222</v>
+        <v>0.1945654764557877</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4315752997768785</v>
+        <v>-0.4272253114849117</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5395764059621602</v>
+        <v>-0.5456987803414488</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.05795221858496154</v>
+        <v>0.05839982975358279</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3294741185470275</v>
+        <v>-0.3265953688907093</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.4322699639526696</v>
+        <v>-0.4313333376693736</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2291524790552061</v>
+        <v>0.2040836105798514</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.06327487336747258</v>
+        <v>0.05209770784415202</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1397305766613591</v>
+        <v>-0.1383745947048425</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7282641193816262</v>
+        <v>0.7108106442571598</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2402266991839153</v>
+        <v>-0.2392749341041348</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3622600805388898</v>
+        <v>-0.3759619907726472</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3409786483020122</v>
+        <v>0.3383597680422281</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-7.017944275132231</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.849784305481092</v>
+        <v>1.849784305481086</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.625889778444054</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-15.36523390975422</v>
+        <v>-15.66943209712892</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.74051598494827</v>
+        <v>-11.92623546698289</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.369877908954484</v>
+        <v>-3.781893520588197</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.33675595183636</v>
+        <v>-3.080221541877472</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.659496667603026</v>
+        <v>-9.090304819732085</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>13.59853878328045</v>
+        <v>13.3715537891601</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.634845761825307</v>
+        <v>-6.683405714448306</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.965978327942763</v>
+        <v>-8.856416384890341</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>8.000079215829651</v>
+        <v>7.801752411289595</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.930772813131506</v>
+        <v>-6.277593774506054</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.636924036268997</v>
+        <v>-2.484370941971109</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.904542952073793</v>
+        <v>6.397979707207302</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.63599308798335</v>
+        <v>6.242234245432535</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4930197995287111</v>
+        <v>0.1169677428170404</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>22.62798699707306</v>
+        <v>22.74466005961964</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.034576770734058</v>
+        <v>0.1500276878449919</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.580315057117611</v>
+        <v>-2.530468517381209</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>14.75075455647752</v>
+        <v>15.20363442544305</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.368507855982443</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.0971310146844912</v>
+        <v>0.09713101468449091</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.07555189616532519</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1992379807709346</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8460197757025447</v>
+        <v>0.8460197757025445</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1599104185582237</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6888761528255812</v>
+        <v>-0.7039073119278081</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5297080544099666</v>
+        <v>-0.5368520218097879</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1665253761808679</v>
+        <v>-0.1600809238254094</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1335355282288862</v>
+        <v>-0.1241309844156968</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3551596771176742</v>
+        <v>-0.3752592296139225</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5473776880031569</v>
+        <v>0.5363314115110558</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2955322208117415</v>
+        <v>-0.3015290077896862</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3962956885768891</v>
+        <v>-0.3979480773454296</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3447088245585755</v>
+        <v>0.3492562510472304</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3571182772702626</v>
+        <v>-0.3738037674303175</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.150433604288208</v>
+        <v>-0.1532733929669998</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4300497871725712</v>
+        <v>0.3919974688572477</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3471154120780075</v>
+        <v>0.3292735797235846</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03213168627495376</v>
+        <v>0.01439744080733806</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.220686014148284</v>
+        <v>1.205002895271662</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.001500470452723124</v>
+        <v>0.008891130242427115</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1317431275800218</v>
+        <v>-0.1362579711634515</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7956583633987788</v>
+        <v>0.8550387778265178</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-1.501377890788953</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6.783901983842378</v>
+        <v>6.783901983842376</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-0.7976418546120301</v>
@@ -1725,7 +1725,7 @@
         <v>-6.417577892834495</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>9.785874404204542</v>
+        <v>9.785874404204547</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.5911528772503977</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.851714520611207</v>
+        <v>-2.01298830709749</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.468977260481395</v>
+        <v>-3.511770467299789</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2.63670094933018</v>
+        <v>1.98509724485844</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.028942454099123</v>
+        <v>-4.21175380327908</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.492868446801731</v>
+        <v>-9.431996131016422</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>5.883211841974139</v>
+        <v>6.191533506979452</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.3365869726501</v>
+        <v>-3.039103582055743</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-8.301371831196393</v>
+        <v>-8.187325185995228</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>5.305294146730106</v>
+        <v>5.466528813983496</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.476579406198756</v>
+        <v>3.333441167401875</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.04434344245996458</v>
+        <v>-0.1201585049583308</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14.41111160579255</v>
+        <v>13.86316731925916</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.499469610847864</v>
+        <v>2.296993049958752</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-3.210127370980742</v>
+        <v>-3.288307054377155</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.5398536492144</v>
+        <v>13.28150144958152</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.056130397295909</v>
+        <v>2.430391717019935</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-3.196872410324749</v>
+        <v>-3.187306093585195</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>12.10180100195049</v>
+        <v>11.76655129136815</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.3163993313384466</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4824630366402607</v>
+        <v>0.482463036640261</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.03531620594947796</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7700735761871582</v>
+        <v>-0.7473577724950646</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.5732874252277845</v>
+        <v>0.3874917517761103</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1821890768599048</v>
+        <v>-0.1945803573254131</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.434095273193274</v>
+        <v>-0.4321612390081955</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2750085820155284</v>
+        <v>0.2871222394836398</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1866655053643975</v>
+        <v>-0.1718101299699028</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4585430362085757</v>
+        <v>-0.451718776617155</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.288134944281202</v>
+        <v>0.3026925071683474</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,33 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>4.283184842461401</v>
-      </c>
-      <c r="D39" s="6" t="n">
-        <v>1.734454096951823</v>
+        <v>3.905925009182485</v>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E39" s="6" t="n">
-        <v>14.37755787435782</v>
+        <v>12.38197097912871</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1334775969085127</v>
+        <v>0.1190726071000372</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1671029221011595</v>
+        <v>-0.1695146895611626</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7215738572599857</v>
+        <v>0.7097317023057053</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1290178169015574</v>
+        <v>0.161375019056062</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.197469207160201</v>
+        <v>-0.1992254513043486</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.765751258822207</v>
+        <v>0.7690493443749787</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1941,7 @@
         <v>-5.386140589397054</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>11.54733777031899</v>
+        <v>11.547337770319</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-4.075215593945022</v>
@@ -1959,31 +1961,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-8.680256955553309</v>
+        <v>-8.855944094702545</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.582043591673031</v>
+        <v>-9.531095719946244</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.6710043825001711</v>
+        <v>0.5625565682939734</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.965611751306291</v>
+        <v>-3.122447801745489</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.30354238418366</v>
+        <v>-7.335810961879565</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>9.649101173755287</v>
+        <v>9.665878760202631</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-5.440555104758288</v>
+        <v>-5.30721807530354</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-7.877696831448048</v>
+        <v>-7.881498305420051</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>5.790261257369052</v>
+        <v>5.817088461803553</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1996,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-5.504889865513872</v>
+        <v>-5.708426242215191</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-6.283780446325017</v>
+        <v>-6.307071578646049</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.448866573084794</v>
+        <v>4.335723964004142</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.9145931259328557</v>
+        <v>0.7982020803403341</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-3.67712543510168</v>
+        <v>-3.543969714701122</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>13.30182279676633</v>
+        <v>13.40899317519534</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-2.92919731789892</v>
+        <v>-2.793478224671675</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-5.439435400139315</v>
+        <v>-5.460143275779989</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>8.536226494826142</v>
+        <v>8.606839407095011</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2046,7 @@
         <v>-0.2798297406584606</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5999265113734681</v>
+        <v>0.5999265113734683</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.2296903782982549</v>
@@ -2064,31 +2066,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5124181230116106</v>
+        <v>-0.5190735576727084</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.562355300156428</v>
+        <v>-0.5619961347173769</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.04003191556986902</v>
+        <v>0.03265833853295824</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1457363842890978</v>
+        <v>-0.1513597177045708</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3610223714972977</v>
+        <v>-0.360627734099139</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4706641025989891</v>
+        <v>0.4748943781958808</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.294807011815886</v>
+        <v>-0.2881882607291728</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4309097673296678</v>
+        <v>-0.4296959292162174</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3100911738004851</v>
+        <v>0.3169998617263013</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2101,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.3617474061121906</v>
+        <v>-0.3638157847211832</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.4138661915310213</v>
+        <v>-0.4118136173725169</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2882415831087965</v>
+        <v>0.2866996149355255</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.05069509455084925</v>
+        <v>0.04376116360765964</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1977804149391305</v>
+        <v>-0.1929629090210024</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7282872811754026</v>
+        <v>0.7315836902075473</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.1724600138958138</v>
+        <v>-0.1636853273107608</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.3180232685260355</v>
+        <v>-0.3201554397287505</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4961568072305079</v>
+        <v>0.5063638997938831</v>
       </c>
     </row>
     <row r="46">
